--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2538556.197202677</v>
+        <v>2534297.934976203</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341471.724576147</v>
+        <v>9341471.724576149</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616887</v>
+        <v>360.2074992331208</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>118.9581905386875</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241032811</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>198.0993925434529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261769</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323692</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199469</v>
       </c>
       <c r="S3" t="n">
         <v>148.0912566156105</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842214</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063352</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.9305357758833</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>161.4063979639594</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>12.92889148616888</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8169938256514211</v>
+        <v>216.3467834994024</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>118.9581905386875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241032811</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011787</v>
       </c>
       <c r="T5" t="n">
         <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261769</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323692</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199469</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156105</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>77.72801998813186</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>72.09749079142524</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>86.48470239518157</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.0349546376108</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.85142387075239</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588589</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>201.0703383355053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277292</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>43.34824157861032</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>220.2028736325136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>19.88691958258357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766869</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>68.11883945937008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>5.890337106877502</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>1.043911798777185</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>141.888808295738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.85677025083604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4343500806758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.0250037474724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.1889657634242</v>
+        <v>1656.685803733345</v>
       </c>
       <c r="C2" t="n">
-        <v>955.1889657634242</v>
+        <v>1287.723286792933</v>
       </c>
       <c r="D2" t="n">
-        <v>596.9232671566738</v>
+        <v>929.4575881861829</v>
       </c>
       <c r="E2" t="n">
-        <v>596.9232671566738</v>
+        <v>543.6693355879386</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9373623670662</v>
+        <v>536.7238348387351</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174009</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174009</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>72.94508437002293</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>153.998627474527</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6076920999246</v>
+        <v>704.9390792031043</v>
       </c>
       <c r="M2" t="n">
-        <v>1004.241644981199</v>
+        <v>1334.573032084378</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.431735936311</v>
+        <v>1959.763123039489</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.593372690805</v>
+        <v>2282.982253027269</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993</v>
+        <v>2392.009993239695</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2479.413416894738</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2479.413416894738</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.720744949769</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="V2" t="n">
-        <v>1894.657857606198</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="W2" t="n">
-        <v>1541.889202336084</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="X2" t="n">
-        <v>1341.788805827546</v>
+        <v>2046.825135709157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.788805827546</v>
+        <v>1656.685803733345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640341</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815789</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K3" t="n">
-        <v>310.0398778971946</v>
+        <v>304.3729239851348</v>
       </c>
       <c r="L3" t="n">
-        <v>813.0227120943041</v>
+        <v>807.3557581822436</v>
       </c>
       <c r="M3" t="n">
-        <v>990.9111639625206</v>
+        <v>1446.292223162959</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944263</v>
+        <v>1643.297497944265</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149935</v>
+        <v>2191.222737149937</v>
       </c>
       <c r="P3" t="n">
         <v>2613.977979877468</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2121.352853104836</v>
+        <v>364.2639748745728</v>
       </c>
       <c r="C4" t="n">
-        <v>1952.41667017693</v>
+        <v>364.2639748745728</v>
       </c>
       <c r="D4" t="n">
-        <v>1952.41667017693</v>
+        <v>364.2639748745728</v>
       </c>
       <c r="E4" t="n">
-        <v>1952.41667017693</v>
+        <v>364.2639748745728</v>
       </c>
       <c r="F4" t="n">
-        <v>1952.41667017693</v>
+        <v>364.2639748745728</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.804393659321</v>
+        <v>195.6516983569639</v>
       </c>
       <c r="H4" t="n">
-        <v>1783.804393659321</v>
+        <v>195.6516983569639</v>
       </c>
       <c r="I4" t="n">
-        <v>1659.129378624754</v>
+        <v>70.97668332239688</v>
       </c>
       <c r="J4" t="n">
-        <v>1640.870782896841</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K4" t="n">
-        <v>1741.30022719433</v>
+        <v>153.1475318919724</v>
       </c>
       <c r="L4" t="n">
-        <v>1925.341773850588</v>
+        <v>337.1890785482304</v>
       </c>
       <c r="M4" t="n">
-        <v>2129.77690336517</v>
+        <v>541.6242080628118</v>
       </c>
       <c r="N4" t="n">
-        <v>2334.78563885673</v>
+        <v>746.6329435543714</v>
       </c>
       <c r="O4" t="n">
-        <v>2508.128092194062</v>
+        <v>919.9753968917031</v>
       </c>
       <c r="P4" t="n">
-        <v>2632.931824629438</v>
+        <v>1044.779129327078</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.904379724211</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="R4" t="n">
-        <v>2505.182197868528</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.182197868528</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="T4" t="n">
-        <v>2505.182197868528</v>
+        <v>839.7410422239898</v>
       </c>
       <c r="U4" t="n">
-        <v>2505.182197868528</v>
+        <v>839.7410422239898</v>
       </c>
       <c r="V4" t="n">
-        <v>2505.182197868528</v>
+        <v>585.0565540181029</v>
       </c>
       <c r="W4" t="n">
-        <v>2505.182197868528</v>
+        <v>585.0565540181029</v>
       </c>
       <c r="X4" t="n">
-        <v>2342.145432248366</v>
+        <v>585.0565540181029</v>
       </c>
       <c r="Y4" t="n">
-        <v>2121.352853104836</v>
+        <v>364.2639748745728</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562.6706263452181</v>
+        <v>1524.431435806527</v>
       </c>
       <c r="C5" t="n">
-        <v>193.7081094048064</v>
+        <v>1155.468918866115</v>
       </c>
       <c r="D5" t="n">
-        <v>193.7081094048064</v>
+        <v>797.203220259365</v>
       </c>
       <c r="E5" t="n">
-        <v>193.7081094048064</v>
+        <v>411.4149676611208</v>
       </c>
       <c r="F5" t="n">
-        <v>186.7626086556029</v>
+        <v>404.4694669119173</v>
       </c>
       <c r="G5" t="n">
-        <v>173.7031223059374</v>
+        <v>391.4099805622518</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174009</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903765</v>
+        <v>72.94508437002293</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403345</v>
+        <v>237.1518427762985</v>
       </c>
       <c r="L5" t="n">
-        <v>779.7640842639668</v>
+        <v>374.6076920999297</v>
       </c>
       <c r="M5" t="n">
-        <v>1171.041983678011</v>
+        <v>1004.241644981203</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.232074633123</v>
+        <v>1629.431735936314</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937499</v>
+        <v>2174.593372690807</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239694</v>
+        <v>2602.201833993001</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4600,19 +4600,19 @@
         <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.107259195795</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.044371852224</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W5" t="n">
-        <v>1326.27571658211</v>
+        <v>1911.031275870649</v>
       </c>
       <c r="X5" t="n">
-        <v>952.8099583210299</v>
+        <v>1911.031275870649</v>
       </c>
       <c r="Y5" t="n">
-        <v>562.6706263452181</v>
+        <v>1911.031275870649</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.4318812120988</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.9788519309718</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697205</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.806987264265</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911499</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640344</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815789</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352073</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727229</v>
+        <v>381.1211448319993</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769832</v>
+        <v>884.103979029108</v>
       </c>
       <c r="M6" t="n">
-        <v>1641.099782750549</v>
+        <v>1523.040444009824</v>
       </c>
       <c r="N6" t="n">
-        <v>2033.221194028225</v>
+        <v>1720.04571879113</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149935</v>
+        <v>2267.970957996801</v>
       </c>
       <c r="P6" t="n">
         <v>2613.977979877468</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4679,7 +4679,7 @@
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162598</v>
       </c>
       <c r="V6" t="n">
         <v>1804.496373930855</v>
@@ -4688,7 +4688,7 @@
         <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997121</v>
       </c>
       <c r="Y6" t="n">
         <v>1134.647218232167</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.3797823234705</v>
+        <v>275.6604752809869</v>
       </c>
       <c r="C7" t="n">
-        <v>217.866630820307</v>
+        <v>275.6604752809869</v>
       </c>
       <c r="D7" t="n">
-        <v>217.866630820307</v>
+        <v>125.5438358686511</v>
       </c>
       <c r="E7" t="n">
-        <v>217.866630820307</v>
+        <v>125.5438358686511</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239667</v>
+        <v>125.5438358686511</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239667</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239667</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239667</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919724</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482304</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628118</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543714</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917031</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327078</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="S7" t="n">
-        <v>840.2167432160227</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="T7" t="n">
-        <v>840.2167432160227</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="U7" t="n">
-        <v>551.0642705293574</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="V7" t="n">
-        <v>296.3797823234705</v>
+        <v>793.0671962159648</v>
       </c>
       <c r="W7" t="n">
-        <v>296.3797823234705</v>
+        <v>503.6500261790042</v>
       </c>
       <c r="X7" t="n">
-        <v>296.3797823234705</v>
+        <v>275.6604752809869</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.3797823234705</v>
+        <v>275.6604752809869</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1163.937002275163</v>
+        <v>953.9004763591372</v>
       </c>
       <c r="C8" t="n">
-        <v>794.9744853347507</v>
+        <v>584.9379594187255</v>
       </c>
       <c r="D8" t="n">
-        <v>794.9744853347507</v>
+        <v>584.9379594187255</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9744853347507</v>
+        <v>584.9379594187255</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>577.9924586695221</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J8" t="n">
-        <v>76.93817085930385</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>480.4052838793493</v>
+        <v>644.8250996282661</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125549</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950956</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1624.444008596245</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610016</v>
+        <v>2171.605213363322</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.68934222104</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724211</v>
+        <v>2011.197777233902</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724211</v>
+        <v>1680.134889890331</v>
       </c>
       <c r="W8" t="n">
-        <v>2283.135724454097</v>
+        <v>1327.366234620217</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.676174315096</v>
+        <v>953.9004763591372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.536842339284</v>
+        <v>953.9004763591372</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>477.3059768395606</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>981.6675167056792</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1622.212866172784</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1820.869607825449</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.8770514488106</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C10" t="n">
-        <v>522.8770514488106</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>372.7604120364749</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>224.8473184540817</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4989,25 +4989,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>556.060307883914</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>556.060307883914</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>556.060307883914</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>556.060307883914</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.8770514488106</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.600013794774</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.610462896756</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.8178837532263</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654462</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2380.626175203723</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.59975125005</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,31 +5524,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M21" t="n">
-        <v>3445.398957336244</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N21" t="n">
-        <v>3445.398957336244</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>1174.7665653734</v>
       </c>
       <c r="N24" t="n">
-        <v>3658.217393399322</v>
+        <v>1802.364528928007</v>
       </c>
       <c r="O24" t="n">
-        <v>4210.127123638609</v>
+        <v>2354.274259167294</v>
       </c>
       <c r="P24" t="n">
-        <v>4633.750273133677</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6141,58 +6141,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372932</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450255</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326898</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>99.7664985094643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.908627217859</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>634.334587849125</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>486.4214942667319</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3658.217393399322</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.570273148498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.495046492696</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.99314676945858</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>156.6158309933382</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547145</v>
+        <v>6.839178026547472</v>
       </c>
       <c r="K3" t="n">
-        <v>192.6659774824723</v>
+        <v>186.9417816117054</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>83.99314676946611</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>208.7498431218927</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026547472</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>197.0870065619891</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>240.9393132390637</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.015993203471041</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>46.23436869130222</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>240.7280987119431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.89936994908771e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>72.11969353038521</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>85.45266000108569</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>151.7319110345153</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>208.7894017452177</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.93476969131439</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3599015160443</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194093</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0188038644579</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.3313349113445</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.5322397271932</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.15030327141895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.380446579815839</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854309.5078060372</v>
+        <v>854309.5078060373</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>854309.5078060372</v>
+        <v>854309.5078060373</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792457.4303828669</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597544</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.9331222369</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.741448478346</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329928</v>
+        <v>775624.2722329927</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821399</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.117466387</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408966</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408966</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660025</v>
+        <v>183932.5854660024</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694981</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695013</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695011</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531694988</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538433</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538433</v>
       </c>
       <c r="D5" t="n">
         <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26487,10 +26487,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424541.0221436993</v>
+        <v>-424541.0221436976</v>
       </c>
       <c r="C6" t="n">
-        <v>365304.9109785389</v>
+        <v>365304.9109785388</v>
       </c>
       <c r="D6" t="n">
-        <v>363189.9191711628</v>
+        <v>363189.9191711615</v>
       </c>
       <c r="E6" t="n">
-        <v>-257495.6678288403</v>
+        <v>-257843.0470831969</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497952</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497955</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497954</v>
       </c>
       <c r="J6" t="n">
-        <v>345711.4630220124</v>
+        <v>345364.0837676557</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041528</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="M6" t="n">
-        <v>390104.4869377656</v>
+        <v>389757.1076834087</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497956</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497955</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041528</v>
+        <v>517781.2251497957</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632729435</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.732193168597</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685968</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168597</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>52.72139225304807</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716174</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011787</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>171.6317081350161</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371271</v>
       </c>
       <c r="S4" t="n">
         <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>17.46534424483252</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>64.3032574250777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.3466576459659</v>
+        <v>98.81686797221496</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>89.51880111049597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>94.82866296100751</v>
       </c>
       <c r="H7" t="n">
         <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842214</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063352</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371271</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>326.4322015507552</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>30.69614604085825</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>185.7332294813424</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.145057780804788e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.619004623022402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>6.271723880975814e-13</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.35127896428318e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.351278964283179e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966172</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414981</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171842</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009678</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071059</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160794</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337066</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635068</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129743</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.362026272872</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605208</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170464</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506669</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179942</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172937</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366194</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387877</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817816</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401192</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976542</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623834</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394079</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351575</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492013</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789708</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190952</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064844</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822731</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445314</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830225</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026015</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849485</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.0222100430369</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603926</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546588</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177223</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609689</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203266</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953862</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324554</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550568</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004244</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319882</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565699</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232815</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966172</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414981</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171842</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009678</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071059</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160794</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337066</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635068</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129743</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.362026272872</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605208</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170464</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506669</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179942</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172937</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366194</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387877</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817816</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401192</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976542</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623834</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394079</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351575</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492013</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789708</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190952</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064844</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822731</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445314</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830225</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026015</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849485</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.0222100430369</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603926</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546588</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177223</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609689</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203266</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953862</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324554</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550568</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004244</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319882</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565699</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232815</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,34 +31840,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>225.4828684302367</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>441.0292693655505</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32317,7 +32317,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>709.4760096096869</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206121</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753702</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>334.769386094614</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>493.6049778318539</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>522.1224556861831</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>491.597732526532</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>20.43130987428151</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>81.87226576212532</v>
       </c>
       <c r="L2" t="n">
-        <v>222.8374390155518</v>
+        <v>556.5055067965427</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992663</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789</v>
       </c>
       <c r="O2" t="n">
-        <v>550.668319954034</v>
+        <v>326.4839696846258</v>
       </c>
       <c r="P2" t="n">
-        <v>431.927738689086</v>
+        <v>110.1290305176024</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607204</v>
+        <v>246.357966145976</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>259.9210003057681</v>
+        <v>254.1968044350006</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859684</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173905</v>
+        <v>645.3903686673895</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>198.9952270518242</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>553.4598375814865</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045784</v>
+        <v>427.0254977045777</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.1478786330741</v>
+        <v>22.14787863307367</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128776</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780384</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228094</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995552</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094259</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973489</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811293</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463558</v>
+        <v>20.43130987428151</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332909</v>
+        <v>165.8654125315914</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460932</v>
+        <v>138.8442922460922</v>
       </c>
       <c r="M5" t="n">
-        <v>395.2302014283276</v>
+        <v>635.9938917992663</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912887</v>
+        <v>550.668319954033</v>
       </c>
       <c r="P5" t="n">
-        <v>431.927738689086</v>
+        <v>431.9277386890851</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459767</v>
+        <v>34.04297548607136</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138617</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358743</v>
+        <v>331.7202598358738</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859684</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673904</v>
+        <v>645.3903686673895</v>
       </c>
       <c r="N6" t="n">
-        <v>396.0822336138143</v>
+        <v>198.9952270518242</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047577</v>
+        <v>553.4598375814865</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045784</v>
+        <v>349.5020423037043</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.1478786330741</v>
+        <v>22.14787863307367</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128776</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780384</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228094</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995552</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094259</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973489</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811293</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.46473057052488</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35184,7 +35184,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>242.5315534306783</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>309.018825644627</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>82.88662398579233</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396399</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>302.4748895856763</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>578.1342975263536</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394538</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533519</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802838</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6305704175236</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>379.5262112417387</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>349.0014880820875</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2534297.934976203</v>
+        <v>2536058.465278988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341471.724576149</v>
+        <v>9341471.724576147</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>360.2074992331208</v>
+        <v>360.2074992331216</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386875</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241032811</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261769</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323692</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199469</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842214</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063352</v>
+        <v>0.6106655258094262</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>205.9305357758833</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616888</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
-        <v>216.3467834994024</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386875</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241032811</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011787</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>143.7017440266293</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261769</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323692</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199469</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.09749079142524</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254.265953781379</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>86.48470239518157</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>283.2102337148776</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>49.9467516048418</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>214.0647808588589</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.67353929277292</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716562</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605717012</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.043911798777185</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>160.6789846282041</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4321,37 +4321,37 @@
         <v>536.7238348387351</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174009</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174009</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448423</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002293</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>153.998627474527</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031043</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084378</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039489</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O2" t="n">
-        <v>2282.982253027269</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239695</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120982</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309712</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642645</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815789</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448423</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448423</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>304.3729239851348</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L3" t="n">
-        <v>807.3557581822436</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M3" t="n">
-        <v>1446.292223162959</v>
+        <v>1061.99243089733</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944265</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149937</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877468</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
       <c r="C4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
       <c r="D4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
       <c r="E4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
       <c r="F4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
       <c r="G4" t="n">
-        <v>195.6516983569639</v>
+        <v>178.009936493505</v>
       </c>
       <c r="H4" t="n">
-        <v>195.6516983569639</v>
+        <v>178.009936493505</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239688</v>
+        <v>53.33492145893817</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448423</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919724</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482304</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628118</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543714</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917031</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327078</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>839.7410422239898</v>
+        <v>822.0992803605308</v>
       </c>
       <c r="U4" t="n">
-        <v>839.7410422239898</v>
+        <v>822.0992803605308</v>
       </c>
       <c r="V4" t="n">
-        <v>585.0565540181029</v>
+        <v>567.4147921546439</v>
       </c>
       <c r="W4" t="n">
-        <v>585.0565540181029</v>
+        <v>567.4147921546439</v>
       </c>
       <c r="X4" t="n">
-        <v>585.0565540181029</v>
+        <v>567.4147921546439</v>
       </c>
       <c r="Y4" t="n">
-        <v>364.2639748745728</v>
+        <v>346.6222130111138</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1524.431435806527</v>
+        <v>1203.99169428092</v>
       </c>
       <c r="C5" t="n">
-        <v>1155.468918866115</v>
+        <v>835.0291773405078</v>
       </c>
       <c r="D5" t="n">
-        <v>797.203220259365</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="E5" t="n">
-        <v>411.4149676611208</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="F5" t="n">
-        <v>404.4694669119173</v>
+        <v>65.77757394414971</v>
       </c>
       <c r="G5" t="n">
-        <v>391.4099805622518</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174009</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002293</v>
+        <v>72.94508437002452</v>
       </c>
       <c r="K5" t="n">
-        <v>237.1518427762985</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6076920999297</v>
+        <v>1025.843037648564</v>
       </c>
       <c r="M5" t="n">
-        <v>1004.241644981203</v>
+        <v>1210.458592371937</v>
       </c>
       <c r="N5" t="n">
-        <v>1629.431735936314</v>
+        <v>1629.431735936303</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690807</v>
+        <v>2174.593372690799</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993001</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.143761215015</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385542</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.799931140763</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="W5" t="n">
-        <v>1911.031275870649</v>
+        <v>1980.730866320853</v>
       </c>
       <c r="X5" t="n">
-        <v>1911.031275870649</v>
+        <v>1980.730866320853</v>
       </c>
       <c r="Y5" t="n">
-        <v>1911.031275870649</v>
+        <v>1590.591534345041</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120988</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309718</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697205</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.806987264265</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911499</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640344</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815789</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448319993</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029108</v>
+        <v>622.2833943866591</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009824</v>
+        <v>1261.219859367377</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.04571879113</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O6" t="n">
-        <v>2267.970957996801</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877468</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4679,19 +4679,19 @@
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162598</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997121</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.6604752809869</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="C7" t="n">
-        <v>275.6604752809869</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="D7" t="n">
-        <v>125.5438358686511</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="E7" t="n">
-        <v>125.5438358686511</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="F7" t="n">
-        <v>125.5438358686511</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919724</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482304</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628118</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543714</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917031</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327078</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421852</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421852</v>
+        <v>790.9173876729922</v>
       </c>
       <c r="V7" t="n">
-        <v>793.0671962159648</v>
+        <v>790.9173876729922</v>
       </c>
       <c r="W7" t="n">
-        <v>503.6500261790042</v>
+        <v>501.5002176360316</v>
       </c>
       <c r="X7" t="n">
-        <v>275.6604752809869</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>275.6604752809869</v>
+        <v>52.71808759448419</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9004763591372</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="C8" t="n">
-        <v>584.9379594187255</v>
+        <v>1220.805321312255</v>
       </c>
       <c r="D8" t="n">
-        <v>584.9379594187255</v>
+        <v>862.5396227055045</v>
       </c>
       <c r="E8" t="n">
-        <v>584.9379594187255</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>577.9924586695221</v>
+        <v>65.76546531765267</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8250996282661</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
         <v>1197.638357874465</v>
@@ -4816,40 +4816,40 @@
         <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596245</v>
+        <v>1624.444008596242</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363322</v>
+        <v>2171.60521336332</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2600.920259702614</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.68934222104</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.889480488751</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="U8" t="n">
-        <v>2011.197777233902</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.134889890331</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="W8" t="n">
-        <v>1327.366234620217</v>
+        <v>2349.833436577868</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9004763591372</v>
+        <v>1976.367678316788</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9004763591372</v>
+        <v>1976.367678316788</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.6229446041677</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>171.3773394513798</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
         <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>371.7709099347268</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448423</v>
+        <v>52.71808759448419</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>1002.201504806514</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>774.2119539084966</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>553.4193747649665</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2380.626175203723</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547921</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2902967703778</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969299</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.7665653734</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928007</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167294</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6141,58 +6141,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2445.908627217859</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.053792872764</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.452327895704</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.377101239902</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.692613034015</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.275442997055</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>982.2858920990373</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6794,10 +6794,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,7 +6955,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7183,19 +7183,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7356,7 +7356,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>156.6158309933382</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547472</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>186.9417816117054</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>388.1816083491101</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>83.99314676946611</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.0469775526423</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547472</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>186.9417816116889</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>240.9393132390637</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>46.23436869130222</v>
+        <v>46.23436869129995</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.11969353038521</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>151.7319110345153</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405068</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194093</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.3313349113445</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.5054897610401</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854309.5078060373</v>
+        <v>854309.5078060367</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>854309.5078060373</v>
+        <v>854309.5078060367</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>853961.3293420727</v>
+        <v>853961.3293420726</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="7">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597544</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222369</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448478346</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329927</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821399</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408966</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408966</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660024</v>
+        <v>183932.5854660026</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694981</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695013</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531694988</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538433</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538433</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26487,10 +26487,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424541.0221436976</v>
+        <v>-424541.0221437021</v>
       </c>
       <c r="C6" t="n">
-        <v>365304.9109785388</v>
+        <v>365304.9109785397</v>
       </c>
       <c r="D6" t="n">
-        <v>363189.9191711615</v>
+        <v>363189.9191711653</v>
       </c>
       <c r="E6" t="n">
-        <v>-257843.0470831969</v>
+        <v>-257530.4057542755</v>
       </c>
       <c r="F6" t="n">
-        <v>517781.2251497952</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="G6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.8664787171</v>
       </c>
       <c r="H6" t="n">
-        <v>517781.2251497955</v>
+        <v>518093.8664787171</v>
       </c>
       <c r="I6" t="n">
-        <v>517781.2251497954</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="J6" t="n">
-        <v>345364.0837676557</v>
+        <v>345676.7250965766</v>
       </c>
       <c r="K6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.8664787171</v>
       </c>
       <c r="L6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="M6" t="n">
-        <v>389757.1076834087</v>
+        <v>390069.74901233</v>
       </c>
       <c r="N6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.8664787165</v>
       </c>
       <c r="O6" t="n">
-        <v>517781.2251497955</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="P6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.866478717</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053356</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053356</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310523</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310523</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053356</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632729435</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,25 +26977,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.732193168596</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310529</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>52.72139225304807</v>
+        <v>52.72139225304727</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716174</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011787</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.46534424482347</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371271</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>17.46534424483252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.81686797221496</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>69.00259454570255</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.82866296100751</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842214</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063352</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371271</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>31.99499417841955</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>326.4322015507552</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>66.03073500253538</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>236.5762467317492</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.145057780804788e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.619004623022402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.271723880975814e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.35127896428318e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.351278964283179e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966172</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414981</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171842</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009678</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071059</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160794</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337066</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635068</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129743</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.362026272872</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605208</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170464</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506669</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179942</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172937</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366194</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387877</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817816</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401192</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976542</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623834</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394079</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351575</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492013</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789708</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190952</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064844</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822731</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445314</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830225</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026015</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849485</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.0222100430369</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603926</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546588</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177223</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609689</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203266</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953862</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324554</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550568</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004244</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319882</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565699</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232815</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966172</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414981</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171842</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009678</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071059</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160794</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337066</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635068</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129743</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.362026272872</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605208</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170464</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506669</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179942</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172937</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366194</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387877</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817816</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401192</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976542</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623834</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394079</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351575</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492013</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789708</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190952</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064844</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822731</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445314</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830225</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026015</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849485</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.0222100430369</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603926</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546588</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177223</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609689</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203266</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953862</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324554</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550568</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004244</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319882</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565699</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232815</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302367</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206121</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>334.769386094614</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34453,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34471,7 +34471,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428151</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212532</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965427</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992663</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>326.4839696846258</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176024</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.357966145976</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>254.1968044350006</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859684</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673895</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9952270518242</v>
+        <v>587.1768354009371</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814865</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045777</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307367</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128776</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780384</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228094</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995552</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094259</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973489</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811293</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428151</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>165.8654125315914</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460922</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992663</v>
+        <v>186.4803583064373</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789</v>
+        <v>423.2051955195616</v>
       </c>
       <c r="O5" t="n">
-        <v>550.668319954033</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890851</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607136</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358738</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859684</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673895</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518242</v>
+        <v>385.9370086635158</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814865</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>349.5020423037043</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307367</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128776</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780384</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228094</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995552</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094259</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973489</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811293</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>242.5315534306783</v>
+        <v>242.5315534306761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579233</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394538</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802838</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38119,7 +38119,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
